--- a/results/03-2022/comparison-deflators-03-2022.xlsx
+++ b/results/03-2022/comparison-deflators-03-2022.xlsx
@@ -668,10 +668,10 @@
         <v>-0.0285</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2063</v>
+        <v>-0.0195</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.142</v>
+        <v>-0.3299</v>
       </c>
       <c r="H5" t="n">
         <v>-0.3325</v>
@@ -756,28 +756,28 @@
         <v>-0.1454</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0847</v>
+        <v>0.035</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0117</v>
+        <v>0.0961</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.0306</v>
+        <v>0.0265</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0742</v>
+        <v>-0.0182</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.066</v>
+        <v>-0.1833</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.1148</v>
+        <v>-0.1982</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0791</v>
+        <v>-0.1366</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0159</v>
+        <v>-0.0727</v>
       </c>
       <c r="N7" t="n">
         <v>0.0373</v>
@@ -844,31 +844,31 @@
         <v>0.1311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0256</v>
+        <v>0.0908</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0193</v>
+        <v>0.0001</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.1882</v>
+        <v>-0.1887</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.1003</v>
+        <v>-0.1233</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.0612</v>
+        <v>-0.0615</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.0508</v>
+        <v>-0.051</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0224</v>
+        <v>-0.0227</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0326</v>
+        <v>-0.0328</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.0654</v>
+        <v>-0.0657</v>
       </c>
     </row>
     <row r="10">
@@ -976,19 +976,19 @@
         <v>0.3369</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8759</v>
+        <v>-0.7896</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0729</v>
+        <v>-0.0738</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.9222</v>
+        <v>-0.9231</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5543</v>
+        <v>-0.5551</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.0434</v>
+        <v>-0.1269</v>
       </c>
       <c r="K12" t="n">
         <v>-0.0269</v>
@@ -1020,31 +1020,31 @@
         <v>0.0321</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1401</v>
+        <v>-0.1262</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1469</v>
+        <v>-0.1489</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.1443</v>
+        <v>-0.145</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0579</v>
+        <v>-0.0587</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0468</v>
+        <v>-0.0475</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6156</v>
+        <v>-0.6157</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.6504</v>
+        <v>-0.6505</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.3143</v>
+        <v>-0.3144</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.1869</v>
+        <v>-0.1876</v>
       </c>
     </row>
     <row r="14">
@@ -1108,31 +1108,31 @@
         <v>-3.2934</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.4122</v>
+        <v>-2.1353</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.585</v>
+        <v>-3.4856</v>
       </c>
       <c r="H15" t="n">
-        <v>-3.2759</v>
+        <v>-3.2049</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.121</v>
+        <v>-2.0618</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.9007</v>
+        <v>-2.0979</v>
       </c>
       <c r="K15" t="n">
-        <v>-3.0122</v>
+        <v>-3.0913</v>
       </c>
       <c r="L15" t="n">
-        <v>-1.1762</v>
+        <v>-1.2189</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.5962</v>
+        <v>-0.6377</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.5302</v>
+        <v>-0.5157</v>
       </c>
     </row>
     <row r="16">
@@ -1196,10 +1196,10 @@
         <v>0.4121</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1993</v>
+        <v>-0.0125</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0802</v>
+        <v>-0.1076</v>
       </c>
       <c r="H17" t="n">
         <v>-0.0575</v>
@@ -1284,31 +1284,31 @@
         <v>-1.1757</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0019</v>
+        <v>-0.033</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0335</v>
+        <v>-0.0232</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0347</v>
+        <v>-0.0345</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0348</v>
+        <v>-0.0225</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0224</v>
+        <v>-0.0223</v>
       </c>
       <c r="K19" t="n">
-        <v>-1.0898</v>
+        <v>-1.0897</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0002</v>
+        <v>-0.0001</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0112</v>
+        <v>-0.0111</v>
       </c>
     </row>
     <row r="20">
@@ -1372,10 +1372,10 @@
         <v>-0.8145</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2602</v>
+        <v>0.0734</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1675</v>
+        <v>0.3554</v>
       </c>
       <c r="H21" t="n">
         <v>0.2012</v>
@@ -1416,31 +1416,31 @@
         <v>-0.023</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.0314</v>
+        <v>-0.0163</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.0324</v>
+        <v>-0.0171</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.0316</v>
+        <v>-0.0163</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0312</v>
+        <v>-0.0158</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0331</v>
+        <v>-0.0177</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.0339</v>
+        <v>-0.0185</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.025</v>
+        <v>-0.0097</v>
       </c>
       <c r="M22" t="n">
-        <v>-0.0234</v>
+        <v>-0.008</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0195</v>
+        <v>-0.0041</v>
       </c>
     </row>
     <row r="23">
@@ -1460,25 +1460,25 @@
         <v>0.2154</v>
       </c>
       <c r="F23" t="n">
-        <v>0.168</v>
+        <v>0.1796</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0902</v>
+        <v>0.1017</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0148</v>
+        <v>0.0151</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0301</v>
+        <v>0.0302</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0044</v>
+        <v>-0.0065</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0201</v>
+        <v>-0.0311</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0777</v>
+        <v>-0.078</v>
       </c>
       <c r="M23" t="n">
         <v>-0.0603</v>
@@ -1856,10 +1856,10 @@
         <v>0.1364</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.018</v>
+        <v>0.1688</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.0004</v>
+        <v>-0.1883</v>
       </c>
       <c r="H32" t="n">
         <v>-0.0004</v>
@@ -1944,28 +1944,28 @@
         <v>-0.0004</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.0004</v>
+        <v>0.1193</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.0004</v>
+        <v>0.0841</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0032</v>
+        <v>0.0603</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0035</v>
+        <v>0.0595</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0033</v>
+        <v>-0.114</v>
       </c>
       <c r="K34" t="n">
-        <v>0.0032</v>
+        <v>-0.0802</v>
       </c>
       <c r="L34" t="n">
-        <v>-0.0003</v>
+        <v>-0.0578</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.0002</v>
+        <v>-0.0569</v>
       </c>
       <c r="N34" t="n">
         <v>-0.0001</v>
@@ -2032,31 +2032,31 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.0653</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>-0.0192</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>-0.023</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
     </row>
     <row r="37">
@@ -2164,19 +2164,19 @@
         <v>-0.0114</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0003</v>
+        <v>0.0859</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0001</v>
+        <v>-0.001</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.0001</v>
+        <v>-0.001</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0106</v>
+        <v>0.0097</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>-0.0835</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -2208,31 +2208,31 @@
         <v>0.0002</v>
       </c>
       <c r="F40" t="n">
+        <v>0.0138</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.0008</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.0007</v>
+      </c>
+      <c r="K40" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-0.0007</v>
       </c>
     </row>
     <row r="41">
@@ -2296,31 +2296,31 @@
         <v>-0.0394</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0049</v>
+        <v>0.272</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.0054</v>
+        <v>0.0939</v>
       </c>
       <c r="H42" t="n">
-        <v>-0.0034</v>
+        <v>0.0675</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0029</v>
+        <v>0.0621</v>
       </c>
       <c r="J42" t="n">
-        <v>-0.0076</v>
+        <v>-0.2048</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0074</v>
+        <v>-0.0865</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0071</v>
+        <v>-0.0497</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.0077</v>
+        <v>-0.0493</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.0059</v>
+        <v>0.0086</v>
       </c>
     </row>
     <row r="43">
@@ -2384,10 +2384,10 @@
         <v>0.127</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.018</v>
+        <v>0.1688</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0004</v>
+        <v>-0.1883</v>
       </c>
       <c r="H44" t="n">
         <v>-0.0004</v>
@@ -2472,31 +2472,31 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-0.0348</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.0102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.0123</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="47">
@@ -2560,10 +2560,10 @@
         <v>-0.1502</v>
       </c>
       <c r="F48" t="n">
-        <v>0.018</v>
+        <v>-0.1688</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0003</v>
+        <v>0.1882</v>
       </c>
       <c r="H48" t="n">
         <v>0.0003</v>
@@ -2604,31 +2604,31 @@
         <v>-0.0141</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.0124</v>
+        <v>0.0028</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0123</v>
+        <v>0.0029</v>
       </c>
       <c r="H49" t="n">
-        <v>-0.0121</v>
+        <v>0.0032</v>
       </c>
       <c r="I49" t="n">
-        <v>-0.0118</v>
+        <v>0.0035</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0115</v>
+        <v>0.0039</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.0112</v>
+        <v>0.0042</v>
       </c>
       <c r="L49" t="n">
-        <v>-0.0109</v>
+        <v>0.0045</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0107</v>
+        <v>0.0047</v>
       </c>
       <c r="N49" t="n">
-        <v>-0.0105</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="50">
@@ -2648,25 +2648,25 @@
         <v>0.0052</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0051</v>
+        <v>0.0167</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0051</v>
+        <v>0.0166</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0014</v>
+        <v>0.0018</v>
       </c>
       <c r="I50" t="n">
-        <v>-0.0035</v>
+        <v>-0.0034</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0035</v>
+        <v>-0.0145</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.0036</v>
+        <v>-0.0145</v>
       </c>
       <c r="L50" t="n">
-        <v>-0.0001</v>
+        <v>-0.0004</v>
       </c>
       <c r="M50" t="n">
         <v>-0.0001</v>
